--- a/SKRIPSI.xlsx
+++ b/SKRIPSI.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SKRIPSI\NBC-TextMining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10ECFF0-CF27-4EE1-A253-77260035FF80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E275479-41FF-4381-819B-FBC55D8BFB81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{7639EC18-9D5E-412F-B26B-02DDCA1757D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7639EC18-9D5E-412F-B26B-02DDCA1757D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Dataset" sheetId="1" r:id="rId1"/>
     <sheet name="training 30" sheetId="10" r:id="rId2"/>
     <sheet name="data test" sheetId="11" r:id="rId3"/>
+    <sheet name="Lembar1" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="177">
   <si>
     <t>Dokumen</t>
   </si>
@@ -563,13 +564,19 @@
   </si>
   <si>
     <t>TOTAL TERMS DATA LATIH</t>
+  </si>
+  <si>
+    <t>raih,menang,persik,manfaat,absen</t>
+  </si>
+  <si>
+    <t>bacok,guru,semester</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -577,8 +584,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -630,6 +643,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA9DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -745,15 +770,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,6 +779,12 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -771,6 +793,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1451,7 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE73D2DC-A55A-4914-ABD8-4504F5C02BD5}">
   <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1466,40 +1504,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="5">
@@ -3894,58 +3932,58 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="15"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A96" s="12" t="s">
+      <c r="A96" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B96" s="12"/>
-      <c r="C96" s="12"/>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
       <c r="H96" s="6">
         <f>SUM(G4:G94)</f>
         <v>52</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="B97" s="12"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
       <c r="H97" s="6">
         <f>SUM(H4:H94)</f>
         <v>65</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A98" s="12" t="s">
+      <c r="A98" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B98" s="12"/>
-      <c r="C98" s="12"/>
-      <c r="D98" s="12"/>
-      <c r="E98" s="12"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="12"/>
-      <c r="H98" s="11">
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="8">
         <v>92</v>
       </c>
     </row>
@@ -3973,8 +4011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEE8F90-BA15-4A4E-B5CF-29C017F909E4}">
   <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="M100" sqref="M100"/>
+    <sheetView topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3985,22 +4023,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5963,6 +6001,360 @@
       <c r="F99" s="5">
         <v>1.47712</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6D0A3D-5355-4896-B81F-0C28D41E8EF5}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="19">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="19">
+        <v>7</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="19">
+        <v>8</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
+        <v>10</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
+        <v>11</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
+        <v>16</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>17</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
+        <v>18</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
+        <v>19</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
+        <v>20</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>21</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="19">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="19">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C31" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
